--- a/exec/enter_vpn_windows/test_case/signup/signup-username_field.xlsx
+++ b/exec/enter_vpn_windows/test_case/signup/signup-username_field.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SymlexVPNTestCases\exec\enter_vpn_windows\test_case\signup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA2C8C4-0ECA-4FAB-8EF6-D2366CC8B572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9495D3B8-BB5D-4E88-9D90-15C7DF689A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="540" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="signup_username" sheetId="1" r:id="rId1"/>
+    <sheet name="signup_email" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>*****</t>
-  </si>
-  <si>
-    <t>try to enter with empty text in the username field</t>
   </si>
   <si>
     <t xml:space="preserve"> validation error for a required field</t>
@@ -139,9 +136,6 @@
     <t>app need to be installed</t>
   </si>
   <si>
-    <t>check the username field with multiple "@" symbols</t>
-  </si>
-  <si>
     <t xml:space="preserve"> should show the validation error for multiple "@" symbols</t>
   </si>
   <si>
@@ -166,34 +160,10 @@
     <t>SYM-WIN-LOG-021</t>
   </si>
   <si>
-    <t>check the username field without "@" symbol</t>
-  </si>
-  <si>
-    <t>check username field with quoted string</t>
-  </si>
-  <si>
     <t>should accept and validate quoted strings</t>
   </si>
   <si>
     <t>SYM-WIN-LOG-022</t>
-  </si>
-  <si>
-    <t>check username field with valid email address</t>
-  </si>
-  <si>
-    <t>check username field for inputting email address with consecutive periods</t>
-  </si>
-  <si>
-    <t>check username field for inputting email address with underscore</t>
-  </si>
-  <si>
-    <t>check username field for inputting email address with trailing period</t>
-  </si>
-  <si>
-    <t>check username field for inputting email address with leading period</t>
-  </si>
-  <si>
-    <t>check username field for inputting email address with tld in uppercase</t>
   </si>
   <si>
     <t>should treat tld as case-insensitive, accept and normalize to lowercase</t>
@@ -202,22 +172,13 @@
     <t>SYM-WIN-LOG-023</t>
   </si>
   <si>
-    <t>check username field for inputting email address with top-level domain (tld) numeric characters</t>
-  </si>
-  <si>
     <t>should accept and validate tld with numeric characters</t>
   </si>
   <si>
     <t>SYM-WIN-LOG-024</t>
   </si>
   <si>
-    <t>check username field for inputting email address with subdomain numeric characters</t>
-  </si>
-  <si>
     <t>SYM-WIN-LOG-025</t>
-  </si>
-  <si>
-    <t>check username field for inputting email address with subdomain leading hyphen</t>
   </si>
   <si>
     <r>
@@ -244,232 +205,19 @@
     <t>SYM-WIN-LOG-026</t>
   </si>
   <si>
-    <t>check username field for inputting email address with subdomain trailing hyphen</t>
-  </si>
-  <si>
     <t>should show validation error for a trailing hyphen in the subdomain</t>
   </si>
   <si>
     <t>SYM-WIN-LOG-027</t>
   </si>
   <si>
-    <t>check username field for inputting email address with subdomain consecutive hyphens</t>
-  </si>
-  <si>
     <t>should show validation error for consecutive hyphens in the subdomain</t>
-  </si>
-  <si>
-    <t>check username field for inputting html Tags</t>
-  </si>
-  <si>
-    <t>check username field for inputting lowercase letters</t>
-  </si>
-  <si>
-    <t>check username field for inputting with a mix of uppercase and lowercase</t>
-  </si>
-  <si>
-    <t>check username field for inputting punctuation</t>
-  </si>
-  <si>
-    <t>check username field for inputting special characters</t>
-  </si>
-  <si>
-    <t>check username field to input with unicode characters</t>
-  </si>
-  <si>
-    <t>check username field to input with uppercase letters</t>
-  </si>
-  <si>
-    <t>check username field to input with leading and trailing spaces</t>
-  </si>
-  <si>
-    <t>check username field to input with newline characters</t>
-  </si>
-  <si>
-    <t>check username field to input with alphanumeric input only</t>
-  </si>
-  <si>
-    <t>check username field to input with spaces in the user name field</t>
-  </si>
-  <si>
-    <t>1. goto the app store
-2. search and install the app
-3. open the app from the device home screen
-4. try submit after entering empty string in the username field.</t>
-  </si>
-  <si>
-    <t>1. goto the app store
-2. search and install the app
-3. open the app from the device home screen
-4. try submit after entering string length of 1 in the username field.</t>
-  </si>
-  <si>
-    <t>1. goto the app store
-2. search and install the app
-3. open the app from the device home screen
-4. try submit after entering string length of 25 in the userame field.</t>
-  </si>
-  <si>
-    <t>1. goto the app store
-2. search and install the app
-3. open the app from the device home screen
-4. try submit after entering string with spaces in the username field.</t>
-  </si>
-  <si>
-    <t>1. goto the app store
-2. search and install the app
-3. open the app from the device home screen
-4.  try submit after entering string with  alphanumeric input only in the username field.</t>
-  </si>
-  <si>
-    <t>1. goto the app store
-2. search and install the app
-3. open the app from the device home screen
-4.  try submit after entering string with  newline characters in the username field.</t>
-  </si>
-  <si>
-    <t>1. goto the app store
-2. search and install the app
-3. open the app from the device home screen
-4.  try submit after entering string with leading and trailing spaces in the username field.</t>
-  </si>
-  <si>
-    <t>1. goto the app store
-2. search and install the app
-3. open the app from the device home screen
-4.  try submit after entering string with unicode characters in the username field.</t>
-  </si>
-  <si>
-    <t>1. goto the app store
-2. search and install the app
-3. open the app from the device home screen
-4.  try submit after entering string with uppercase letters in the username field.</t>
-  </si>
-  <si>
-    <t>1. goto the app store
-2. search and install the app
-3. open the app from the device home screen
-4.  try submit after entering string with html Tags in the username field.</t>
   </si>
   <si>
     <t>should accept the lowercase letters</t>
   </si>
   <si>
-    <t>1. goto the app store
-2. search and install the app
-3. open the app from the device home screen
-4.  try submit after entering string with lower letters in the username field.</t>
-  </si>
-  <si>
-    <t>1. goto the app store
-2. search and install the app
-3. open the app from the device home screen
-4.  try submit after entering string with mix of uppercase and lowercase in the username field.</t>
-  </si>
-  <si>
-    <t>1. goto the app store
-2. search and install the app
-3. open the app from the device home screen
-4.  try submit after entering string with punctuation in the username field.</t>
-  </si>
-  <si>
-    <t>1. goto the app store
-2. search and install the app
-3. open the app from the device home screen
-4.  try submit after entering string with special characters in the username field.</t>
-  </si>
-  <si>
-    <t>1. goto the app store
-2. search and install the app
-3. open the app from the device home screen
-4.  try submit after entering string with multiple "@" symbols in the username field.</t>
-  </si>
-  <si>
-    <t>1. goto the app store
-2. search and install the app
-3. open the app from the device home screen
-4.  try submit after entering string with valid email address in the username field.</t>
-  </si>
-  <si>
-    <t>1. goto the app store
-2. search and install the app
-3. open the app from the device home screen
-4.  try submit after entering string without "@" symbol in the username field.</t>
-  </si>
-  <si>
-    <t>1. goto the app store
-2. search and install the app
-3. open the app from the device home screen
-4.  try submit after entering string email address with leading period in the username field.</t>
-  </si>
-  <si>
-    <t>1. goto the app store
-2. search and install the app
-3. open the app from the device home screen
-4.  try submit after entering string email address with trailing period in the username field.</t>
-  </si>
-  <si>
-    <t>1. goto the app store
-2. search and install the app
-3. open the app from the device home screen
-4.  try submit after entering string email address with consecutive periods in the username field.</t>
-  </si>
-  <si>
-    <t>1. goto the app store
-2. search and install the app
-3. open the app from the device home screen
-4.  try submit after entering string email address with underscore in the username field.</t>
-  </si>
-  <si>
-    <t>1. goto the app store
-2. search and install the app
-3. open the app from the device home screen
-4.  try submit after entering string email address with tld in uppercase in the username field.</t>
-  </si>
-  <si>
-    <t>1. goto the app store
-2. search and install the app
-3. open the app from the device home screen
-4.  try submit after entering string email address with top-level domain (tld) numeric characters in the username field.</t>
-  </si>
-  <si>
-    <t>1. goto the app store
-2. search and install the app
-3. open the app from the device home screen
-4.  try submit after entering string email address with subdomain numeric characters in the username field.</t>
-  </si>
-  <si>
-    <t>1. goto the app store
-2. search and install the app
-3. open the app from the device home screen
-4.  try submit after entering string email address with subdomain leading hyphen in the username field.</t>
-  </si>
-  <si>
-    <t>1. goto the app store
-2. search and install the app
-3. open the app from the device home screen
-4.  try submit after entering string email address with subdomain trailing hyphen in the username field.</t>
-  </si>
-  <si>
-    <t>1. goto the app store
-2. search and install the app
-3. open the app from the device home screen
-4.  try submit after entering string email address with quoted string in the username field.</t>
-  </si>
-  <si>
-    <t>1. goto the app store
-2. search and install the app
-3. open the app from the device home screen
-4.  try submit after entering string email address with subdomain subdomain consecutive hyphens in the username field.</t>
-  </si>
-  <si>
     <t>validation error if the minimum length is less than 3</t>
-  </si>
-  <si>
-    <t>check username field to login with use(1 digit)</t>
-  </si>
-  <si>
-    <t>check username field for inputting with non-alphanumeric characters</t>
   </si>
   <si>
     <t>app need to be 
@@ -477,12 +225,6 @@
   </si>
   <si>
     <t>SYM-WIN-LOG-028</t>
-  </si>
-  <si>
-    <t>1. goto the app store
-2. search and install the app
-3. open the app from the device home screen
-4.  try submit after entering string email address with  non-alphanumeric characters in the username field.</t>
   </si>
   <si>
     <t>should accept non-alphanumeric characters as needed</t>
@@ -500,16 +242,277 @@
     <t>Expected result</t>
   </si>
   <si>
-    <t>Test Scenario: Username field in the signup screen</t>
-  </si>
-  <si>
     <t xml:space="preserve">validation error if input exceed the maximum length </t>
   </si>
   <si>
-    <t>check username field to enter with maximum characters</t>
+    <t>Pass</t>
   </si>
   <si>
-    <t>Pass</t>
+    <t>1. go to the windows app store
+2. search and install the app
+3. open the app from the device home screen
+4. try submit after entering string length of 25 in the userame field.</t>
+  </si>
+  <si>
+    <t>Test Scenario: email field in the signup screen</t>
+  </si>
+  <si>
+    <t>try to enter with empty text in the email field</t>
+  </si>
+  <si>
+    <t>check email field to login with use(1 digit)</t>
+  </si>
+  <si>
+    <t>1. go to the windows app store
+2. search and install the app
+3. open the app from the device home screen
+4. try submit after entering string length of 1 in the email field.</t>
+  </si>
+  <si>
+    <t>check email field to enter with maximum characters</t>
+  </si>
+  <si>
+    <t>check email field to input with spaces in the user name field</t>
+  </si>
+  <si>
+    <t>1. go to the windows app store
+2. search and install the app
+3. open the app from the device home screen
+4. try submit after entering string with spaces in the email field.</t>
+  </si>
+  <si>
+    <t>check email field to input with alphanumeric input only</t>
+  </si>
+  <si>
+    <t>1. go to the windows app store
+2. search and install the app
+3. open the app from the device home screen
+4.  try submit after entering string with  alphanumeric input only in the email field.</t>
+  </si>
+  <si>
+    <t>check email field to input with newline characters</t>
+  </si>
+  <si>
+    <t>1. go to the windows app store
+2. search and install the app
+3. open the app from the device home screen
+4.  try submit after entering string with  newline characters in the email field.</t>
+  </si>
+  <si>
+    <t>check email field to input with leading and trailing spaces</t>
+  </si>
+  <si>
+    <t>1. go to the windows app store
+2. search and install the app
+3. open the app from the device home screen
+4.  try submit after entering string with leading and trailing spaces in the email field.</t>
+  </si>
+  <si>
+    <t>check email field to input with unicode characters</t>
+  </si>
+  <si>
+    <t>1. go to the windows app store
+2. search and install the app
+3. open the app from the device home screen
+4.  try submit after entering string with unicode characters in the email field.</t>
+  </si>
+  <si>
+    <t>check email field to input with uppercase letters</t>
+  </si>
+  <si>
+    <t>1. go to the windows app store
+2. search and install the app
+3. open the app from the device home screen
+4.  try submit after entering string with uppercase letters in the email field.</t>
+  </si>
+  <si>
+    <t>check email field for inputting html Tags</t>
+  </si>
+  <si>
+    <t>1. go to the windows app store
+2. search and install the app
+3. open the app from the device home screen
+4.  try submit after entering string with html Tags in the email field.</t>
+  </si>
+  <si>
+    <t>check email field for inputting lowercase letters</t>
+  </si>
+  <si>
+    <t>1. go to the windows app store
+2. search and install the app
+3. open the app from the device home screen
+4.  try submit after entering string with lower letters in the email field.</t>
+  </si>
+  <si>
+    <t>check email field for inputting with a mix of uppercase and lowercase</t>
+  </si>
+  <si>
+    <t>1. go to the windows app store
+2. search and install the app
+3. open the app from the device home screen
+4.  try submit after entering string with mix of uppercase and lowercase in the email field.</t>
+  </si>
+  <si>
+    <t>check email field for inputting punctuation</t>
+  </si>
+  <si>
+    <t>1. go to the windows app store
+2. search and install the app
+3. open the app from the device home screen
+4.  try submit after entering string with punctuation in the email field.</t>
+  </si>
+  <si>
+    <t>check email field for inputting special characters</t>
+  </si>
+  <si>
+    <t>1. go to the windows app store
+2. search and install the app
+3. open the app from the device home screen
+4.  try submit after entering string with special characters in the email field.</t>
+  </si>
+  <si>
+    <t>check the email field with multiple "@" symbols</t>
+  </si>
+  <si>
+    <t>1. go to the windows app store
+2. search and install the app
+3. open the app from the device home screen
+4.  try submit after entering string with multiple "@" symbols in the email field.</t>
+  </si>
+  <si>
+    <t>check the email field without "@" symbol</t>
+  </si>
+  <si>
+    <t>1. go to the windows app store
+2. search and install the app
+3. open the app from the device home screen
+4.  try submit after entering string without "@" symbol in the email field.</t>
+  </si>
+  <si>
+    <t>check email field with valid email address</t>
+  </si>
+  <si>
+    <t>1. go to the windows app store
+2. search and install the app
+3. open the app from the device home screen
+4.  try submit after entering string with valid email address in the email field.</t>
+  </si>
+  <si>
+    <t>check email field for inputting email address with leading period</t>
+  </si>
+  <si>
+    <t>1. go to the windows app store
+2. search and install the app
+3. open the app from the device home screen
+4.  try submit after entering string email address with leading period in the email field.</t>
+  </si>
+  <si>
+    <t>check email field for inputting email address with trailing period</t>
+  </si>
+  <si>
+    <t>1. go to the windows app store
+2. search and install the app
+3. open the app from the device home screen
+4.  try submit after entering string email address with trailing period in the email field.</t>
+  </si>
+  <si>
+    <t>check email field for inputting email address with consecutive periods</t>
+  </si>
+  <si>
+    <t>1. go to the windows app store
+2. search and install the app
+3. open the app from the device home screen
+4.  try submit after entering string email address with consecutive periods in the email field.</t>
+  </si>
+  <si>
+    <t>check email field for inputting email address with underscore</t>
+  </si>
+  <si>
+    <t>1. go to the windows app store
+2. search and install the app
+3. open the app from the device home screen
+4.  try submit after entering string email address with underscore in the email field.</t>
+  </si>
+  <si>
+    <t>check email field with quoted string</t>
+  </si>
+  <si>
+    <t>1. go to the windows app store
+2. search and install the app
+3. open the app from the device home screen
+4.  try submit after entering string email address with quoted string in the email field.</t>
+  </si>
+  <si>
+    <t>check email field for inputting email address with tld in uppercase</t>
+  </si>
+  <si>
+    <t>1. go to the windows app store
+2. search and install the app
+3. open the app from the device home screen
+4.  try submit after entering string email address with tld in uppercase in the email field.</t>
+  </si>
+  <si>
+    <t>check email field for inputting email address with top-level domain (tld) numeric characters</t>
+  </si>
+  <si>
+    <t>1. go to the windows app store
+2. search and install the app
+3. open the app from the device home screen
+4.  try submit after entering string email address with top-level domain (tld) numeric characters in the email field.</t>
+  </si>
+  <si>
+    <t>check email field for inputting email address with subdomain numeric characters</t>
+  </si>
+  <si>
+    <t>1. go to the windows app store
+2. search and install the app
+3. open the app from the device home screen
+4.  try submit after entering string email address with subdomain numeric characters in the email field.</t>
+  </si>
+  <si>
+    <t>check email field for inputting email address with subdomain leading hyphen</t>
+  </si>
+  <si>
+    <t>1. go to the windows app store
+2. search and install the app
+3. open the app from the device home screen
+4.  try submit after entering string email address with subdomain leading hyphen in the email field.</t>
+  </si>
+  <si>
+    <t>check email field for inputting email address with subdomain trailing hyphen</t>
+  </si>
+  <si>
+    <t>1. go to the windows app store
+2. search and install the app
+3. open the app from the device home screen
+4.  try submit after entering string email address with subdomain trailing hyphen in the email field.</t>
+  </si>
+  <si>
+    <t>check email field for inputting email address with subdomain consecutive hyphens</t>
+  </si>
+  <si>
+    <t>1. go to the windows app store
+2. search and install the app
+3. open the app from the device home screen
+4.  try submit after entering string email address with subdomain subdomain consecutive hyphens in the email field.</t>
+  </si>
+  <si>
+    <t>check email field for inputting with non-alphanumeric characters</t>
+  </si>
+  <si>
+    <t>1. go to the windows app store
+2. search and install the app
+3. open the app from the device home screen
+4.  try submit after entering string email address with  non-alphanumeric characters in the email field.</t>
+  </si>
+  <si>
+    <t>1. go to the windows app store
+2. search and install the app
+3. open the app from the device home screen
+4. click on the sign up text link at bottom after login button in the login page
+5. enter valid password to the password field
+6. enter valid password to the retype password field
+7. try submit after entering empty string in the email field.</t>
   </si>
 </sst>
 </file>
@@ -1617,7 +1620,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1634,7 +1637,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -1704,7 +1707,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>4</v>
@@ -1732,24 +1735,24 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:26" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" ht="118.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>9</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>127</v>
+        <v>68</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>7</v>
@@ -1774,24 +1777,24 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" spans="1:26" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>127</v>
+        <v>68</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="3"/>
@@ -1814,24 +1817,24 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="1:26" ht="87.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>127</v>
+        <v>68</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="3"/>
@@ -1856,22 +1859,22 @@
     </row>
     <row r="7" spans="1:26" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>127</v>
+        <v>68</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="3"/>
@@ -1896,19 +1899,19 @@
     </row>
     <row r="8" spans="1:26" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>6</v>
@@ -1936,19 +1939,19 @@
     </row>
     <row r="9" spans="1:26" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>6</v>
@@ -1976,19 +1979,19 @@
     </row>
     <row r="10" spans="1:26" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>6</v>
@@ -2016,19 +2019,19 @@
     </row>
     <row r="11" spans="1:26" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>6</v>
@@ -2056,19 +2059,19 @@
     </row>
     <row r="12" spans="1:26" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>6</v>
@@ -2096,19 +2099,19 @@
     </row>
     <row r="13" spans="1:26" ht="87.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>6</v>
@@ -2136,19 +2139,19 @@
     </row>
     <row r="14" spans="1:26" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>6</v>
@@ -2176,19 +2179,19 @@
     </row>
     <row r="15" spans="1:26" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>6</v>
@@ -2216,19 +2219,19 @@
     </row>
     <row r="16" spans="1:26" ht="86.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>6</v>
@@ -2256,19 +2259,19 @@
     </row>
     <row r="17" spans="1:26" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>6</v>
@@ -2296,19 +2299,19 @@
     </row>
     <row r="18" spans="1:26" ht="99.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>6</v>
@@ -2336,19 +2339,19 @@
     </row>
     <row r="19" spans="1:26" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>6</v>
@@ -2376,19 +2379,19 @@
     </row>
     <row r="20" spans="1:26" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>6</v>
@@ -2416,19 +2419,19 @@
     </row>
     <row r="21" spans="1:26" ht="87.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>6</v>
@@ -2456,19 +2459,19 @@
     </row>
     <row r="22" spans="1:26" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>6</v>
@@ -2496,19 +2499,19 @@
     </row>
     <row r="23" spans="1:26" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>6</v>
@@ -2536,19 +2539,19 @@
     </row>
     <row r="24" spans="1:26" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>6</v>
@@ -2576,19 +2579,19 @@
     </row>
     <row r="25" spans="1:26" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>6</v>
@@ -2616,19 +2619,19 @@
     </row>
     <row r="26" spans="1:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>6</v>
@@ -2656,19 +2659,19 @@
     </row>
     <row r="27" spans="1:26" ht="103.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>6</v>
@@ -2696,19 +2699,19 @@
     </row>
     <row r="28" spans="1:26" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>6</v>
@@ -2736,19 +2739,19 @@
     </row>
     <row r="29" spans="1:26" ht="97.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>6</v>
@@ -2776,19 +2779,19 @@
     </row>
     <row r="30" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>6</v>
@@ -2816,19 +2819,19 @@
     </row>
     <row r="31" spans="1:26" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>6</v>
@@ -2856,19 +2859,19 @@
     </row>
     <row r="32" spans="1:26" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>6</v>
